--- a/BD.xlsx
+++ b/BD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>Activo</t>
   </si>
@@ -128,12 +128,6 @@
     <t>Deuda Corporativa en USD</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>U$S</t>
-  </si>
-  <si>
     <t>Soberano AL30</t>
   </si>
   <si>
@@ -282,6 +276,15 @@
   </si>
   <si>
     <t>TBILL 30/10/25 - US TREASURY BILL  ZCP V. 30/10/25</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>TBILL VTO 30/10/25</t>
   </si>
 </sst>
 </file>
@@ -628,15 +631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -665,13 +668,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3">
         <v>58129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -682,13 +685,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3">
         <v>95612</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -699,13 +702,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
         <v>57118</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -716,13 +719,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3">
         <v>58247</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -733,13 +736,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3">
         <v>57124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -750,13 +753,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3">
         <v>58166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -767,13 +770,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3">
         <v>58085</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -784,13 +787,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3">
         <v>58256</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -801,13 +804,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3">
         <v>58133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -823,47 +826,53 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3">
         <v>5927</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3">
         <v>81086</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3">
         <v>81088</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,19 +882,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3">
         <v>9247</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,35 +904,41 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>81150</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>81435</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
         <v>42753</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,13 +952,13 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -952,13 +967,13 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -967,13 +982,13 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -982,13 +997,13 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -997,13 +1012,13 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1012,13 +1027,13 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1027,13 +1042,13 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1042,13 +1057,13 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1057,10 +1072,10 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,13 +1084,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,13 +1099,13 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1099,10 +1114,10 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1117,70 +1132,70 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3">
         <v>27288</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3">
         <v>14210</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="3">
         <v>27291</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3">
         <v>14221</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,86 +1205,98 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3">
         <v>83742</v>
       </c>
+      <c r="C47" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3">
         <v>84102</v>
       </c>
+      <c r="C48" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="3">
         <v>84049</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3">
         <v>8358</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3">
         <v>8502</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3">
         <v>8514</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>8526</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3">
         <v>8596</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>Activo</t>
   </si>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1267,9 @@
       <c r="C34" s="2">
         <v>84049</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E34" t="s">
         <v>79</v>
       </c>
@@ -1284,6 +1287,9 @@
       <c r="C35" s="2">
         <v>8358</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1295,6 +1301,9 @@
       <c r="C36" s="2">
         <v>8502</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1306,6 +1315,9 @@
       <c r="C37" s="2">
         <v>8514</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1317,6 +1329,9 @@
       <c r="C38" s="2">
         <v>8526</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1327,6 +1342,9 @@
       </c>
       <c r="C39" s="2">
         <v>8596</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1048558" spans="2:2" x14ac:dyDescent="0.25">
